--- a/spreadsheet/macrofree/azureexpressroute_sg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azureexpressroute_sg_checklist.zh-Hant.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>在初始規劃階段，需要決定是要配置 ExpressRoute 線路還是 ExpressRoute Direct 連接。ExpressRoute 線路允許在連接供應商的説明下連接到 Azure。ExpressRoute Direct 允許將本地網路直接擴展到對等互連位置的 Microsoft 網路。您還需要確定頻寬要求和 SKU 類型要求，以滿足您的業務需求。</t>
+          <t>在初始規劃階段，需要決定是要配置 ExpressRoute 線路還是 ExpressRoute Direct 連接。ExpressRoute 線路允許在連接供應商的説明下與 Azure 建立專用連接。ExpressRoute Direct 允許將本地網路直接擴展到對等互連位置的 Microsoft 網路。您還需要確定業務需求的頻寬要求和 SKU 類型要求。</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>為了提高復原能力，請計劃在本地邊緣和對等互連位置（供應商/Microsoft 邊緣位置）之間設置多個路徑。可以通過不同的服務提供者或與本地網路不同的位置來實現此配置。</t>
+          <t>為了獲得更好的復原能力，請計劃在本地邊緣和對等互連位置（供應商/Microsoft 邊緣位置）之間設置多條路徑。可以通過不同的服務提供者或通過與本地網路不同的位置來實現此配置。</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>若要規劃災難恢復，請在多個對等互連位置設置ExpressRoute線路。您可以在同一城域網或不同城域網的對等位置創建線路，並選擇與不同的服務提供者合作，以實現通過每個線路的不同路徑。有關詳細資訊，請參閱設計災難恢復和設計高可用性。</t>
+          <t>若要規劃災難恢復，請在多個對等互連位置設置ExpressRoute線路。您可以在同一城域或不同城域的對等位置創建線路，並選擇與不同的服務提供者合作，為通過每個線路的不同路徑提供服務。有關更多資訊，請參閱災難恢復設計 和 高可用性設計。</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>在本地和 Azure 之間配置主動-主動連接時，ExpressRoute 專用線路可保證“99.95%”的可用性。此模式提供更高的 Expressroute 連接可用性。此外，還建議配置 BFD，以便在連接上出現鏈路故障時更快地進行故障轉移。</t>
+          <t>在本地和 Azure 之間配置主動-主動連接時，ExpressRoute 專用線路可保證“99.95%”的可用性。此模式提供更高的 ExpressRoute 連接可用性。此外，還建議配置 BFD 以便在連接發生鏈路故障時更快地進行故障轉移。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>創建可用性區域感知虛擬網路閘道以提高復原能力，並規劃不同區域中的虛擬網路閘道以實現災難恢復和高可用性。</t>
+          <t>創建可用性區域感知型虛擬網路網關以提高復原能力，並在不同區域規劃虛擬網路網關以實現災難恢復和高可用性。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>通過活動日誌，可以深入瞭解在訂閱級別對 ExpressRoute 資源執行的操作。使用活動日誌，您可以確定在控制平面上執行操作的人員和時間。數據保留期僅為 90 天，需要存儲在 Log Analytics、事件中心或存儲帳戶中以進行存檔。</t>
+          <t>活動日誌提供對 ExpressRoute 資源的訂閱級別執行的操作的見解。使用活動日誌，您可以確定在控制層面上執行操作的人員和時間。數據保留期僅為 90 天，需要存儲在 Log Analytics、事件中心或存儲帳戶中進行存檔。</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>在配置專用對等互連或 Microsoft 對等互連期間，應用 MD5 哈希來保護本地路由和 MSEE 路由器之間的消息。</t>
+          <t>在配置專用對等互連或 Microsoft 對等互連期間，應用 MD5 哈希來保護本地路由與 MSEE 路由器之間的消息。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>為 ExpressRoute Direct 資源配置 MACSecConfigure MACSec for ExpressRoute Direct resources</t>
+          <t>為 ExpressRoute Direct 資源配置 MACSec</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>媒體訪問控制安全是數據鏈路層的點對點安全。ExpressRoute Direct 支援配置 MACSec，以防止對 ARP、DHCP、LACP 等協定的安全威脅，這些協定通常在乙太網路上不受保護。有關如何配置 MACSec 的詳細資訊，請參閱適用於 ExpressRoute Direct 埠的 MACSec。</t>
+          <t>Media Access Control 安全性是數據鏈路層的點對點安全性。ExpressRoute Direct 支援配置 MACSec 以防止對乙太網路上通常不安全的協定（如 ARP、DHCP、LACP）構成安全威脅。有關如何配置 MACSec 的詳細資訊，請參閱適用於 ExpressRoute Direct 埠的 MACSec。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>在 ExpressRoute 線路上配置網站到網站 VPN 隧道，以加密本地網路和 Azure 虛擬網路之間的數據傳輸。您可以使用專用對等互連或使用 Microsoft 對等互連來配置隧道。</t>
+          <t>通過 ExpressRoute 線路配置網站到網站 VPN 隧道，以加密本地網路與 Azure 虛擬網路之間的數據傳輸。您可以使用專用對等連接或使用 Microsoft 對等連接來配置隧道。</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>有關 ExpressRoute 定價的資訊，請參閱瞭解 Azure ExpressRoute 的定價。您也可以使用定價計算機。確保選項的大小足夠大，以滿足容量需求，並在不浪費資源的情況下提供預期的性能。</t>
+          <t>有關 ExpressRoute 定價的資訊，請參閱瞭解 Azure ExpressRoute 的定價。您還可以使用定價計算機。確保選項的大小足以滿足容量需求，並在不浪費資源的情況下提供預期的性能。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 使用費的收費方式在三種不同的 SKU 類型之間有所不同。使用本地 SKU 時，系統會自動向您收取無限數據計劃的費用。使用標準和高級 SKU，可以選擇按流量計費或無限制的數據計劃。所有入口數據都是免費的，除非使用 Global Reach 外掛程式。請務必瞭解哪些 SKU 類型和數據計劃最適合您的工作負載，以最好地優化成本和預算。有關調整 ExpressRoute 線路大小的詳細資訊，請參閱升級 ExpressRoute 線路頻寬。</t>
+          <t>ExpressRoute 使用費的收費方式因三種不同的 SKU 類型而異。使用本地 SKU 時，系統會自動向你收取無限數據計劃的費用。使用 Standard 和 Premium SKU，您可以在 Metered 或 Unlimited 數據計劃之間進行選擇。所有入口數據都是免費的，除非使用 Global Reach 附加元件。瞭解哪些 SKU 類型和數據計劃最適合您的工作負載，以最好地優化成本和預算，這一點很重要。有關調整 ExpressRoute 線路大小的更多資訊，請參閱升級 ExpressRoute 線路頻寬。</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 虛擬網路閘道用於通過專用對等互連將流量傳遞到虛擬網路。查看首選虛擬網路閘道 SKU 的性能和規模需求。在本地到 Azure 工作負載上選擇適當的閘道 SKU。</t>
+          <t>ExpressRoute 虛擬網路閘道用於通過專用對等互連將流量傳遞到虛擬網路。查看首選虛擬網路閘道 SKU 的性能和縮放需求。在本地到 Azure 工作負載上選擇適當的閘道 SKU。</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>監控成本並創建預算警報</t>
+          <t>監控成本並創建預算提醒</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>監視 ExpressRoute 線路的成本，並創建針對支出異常和超支風險的警報。有關詳細資訊，請參閱監視ExpressRoute成本。</t>
+          <t>監視 ExpressRoute 線路的成本，並針對支出異常和超支風險創建警報。有關更多資訊，請參閱監控 ExpressRoute 成本。</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 線路從創建的那一刻起就收費。為了減少不必要的成本，請與服務提供者取消預配線路，並從訂閱中刪除 ExpressRoute 線路。有關如何刪除 ExpressRoute 線路的步驟，請參閱取消預配 ExpressRoute 線路。</t>
+          <t>ExpressRoute 線路從創建時開始收費。為了減少不必要的成本，請向服務提供者取消預配線路，並從訂閱中刪除 ExpressRoute 線路。有關如何刪除 ExpressRoute 線路的步驟，請參閱取消預配 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>配置連接監視</t>
+          <t>配置連接監控</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>通過連接監視，可以通過 ExpressRoute 專用對等互連和 Microsoft 對等互連連接監視本地資源與 Azure 之間的連接。連接監視器可以通過識別問題在網路路徑上的位置來檢測網路問題，並説明您快速解決配置或硬體故障。</t>
+          <t>通過連接監視，可以通過 ExpressRoute 專用對等互連和 Microsoft 對等互連連接監視本地資源與 Azure 之間的連接。連接監視器可以通過識別問題在網路路徑中的位置來檢測網路問題，並説明您快速解決配置或硬體故障。</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>配置服務運行狀況</t>
+          <t>配置 Service Health</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>設置服務運行狀況通知，以便在訂閱中的所有 ExpressRoute 線路發生計劃內和即將進行的維護時發出警報。如果發生計劃外維護，服務運行狀況還會顯示過去的維護以及 RCA。</t>
+          <t>設置服務運行狀況通知，以便在訂閱中的所有 ExpressRoute 線路發生計劃內和即將進行的維護時發出警報。如果發生計劃外維護，Service Health 還會顯示過去的維護以及 RCA。</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>通過具有網路見解的 ExpressRoute 見解，可以查看和分析 ExpressRoute 線路、閘道、連接指標和運行狀況儀錶板。ExpressRoute 見解還提供 ExpressRoute 連接的拓撲視圖，可在其中在一個位置查看對等互連元件的詳細資訊。可用指標：- 可用性- 輸送量- 閘道指標</t>
+          <t>使用 Network Insights 的 ExpressRoute Insights，可以查看和分析 ExpressRoute 線路、網關、連接指標和運行狀況儀錶板。ExpressRoute Insights 還提供 ExpressRoute 連接的拓撲視圖，你可以在一個位置查看對等互連元件的詳細資訊。可用指標：- 可用性 - 輸送量 - 閘道指標</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 連接工具包測試 ExpressRoute 線路的性能，以瞭解網路連接的頻寬、容量和延遲。</t>
+          <t>使用 Azure 連接工具包測試 ExpressRoute 線路的性能，以瞭解網路連接的頻寬容量和延遲。</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>升級到更高的閘道 SKU，以提高本地環境和 Azure 環境之間的輸送量性能。</t>
+          <t>升級到更高的閘道 SKU，以提高本地和 Azure 環境之間的輸送量性能。</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>升級您的電路頻寬以滿足您的工作負載要求。線路頻寬在連接到 ExpressRoute 線路的所有虛擬網路之間共用。根據工作負載，一個或多個虛擬網路可能會耗盡線路上的所有頻寬。</t>
+          <t>升級您的電路頻寬以滿足您的工作負載要求。線路頻寬在連接到 ExpressRoute 線路的所有虛擬網路之間共用。根據您的工作負載，一個或多個虛擬網路可能會用完電路上的所有頻寬。</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是超高性能或 ErGW3AZ 虛擬網路閘道，則可以啟用 FastPath 以提高本地網路和 Azure 虛擬網路之間的數據路徑性能。</t>
+          <t>如果您使用的是 Ultra 性能或 ErGW3AZ 虛擬網路閘道，則可以啟用 FastPath 來提高本地網路和 Azure 虛擬網路之間的數據路徑性能。</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>根據 ExpressRoute 指標設置警報，以便在達到特定閾值時主動通知你。這些指標有助於瞭解 ExpressRoute 連接可能發生的異常情況，例如 ExpressRoute 線路發生的中斷和維護。</t>
+          <t>根據 ExpressRoute 指標設置警報，以便在達到特定閾值時主動通知你。這些指標有助於瞭解 ExpressRoute 連接可能發生的異常情況，例如 ExpressRoute 線路發生中斷和維護。</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6406,7 +6406,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/spreadsheet/macrofree/azureexpressroute_sg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azureexpressroute_sg_checklist.zh-Hant.xlsx
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>物理層多樣性</t>
+          <t>規劃異地冗餘線路</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>為了獲得更好的復原能力，請計劃在本地邊緣和對等互連位置（供應商/Microsoft 邊緣位置）之間設置多條路徑。可以通過不同的服務提供者或通過與本地網路不同的位置來實現此配置。</t>
+          <t>若要規劃災難恢復，請在多個對等互連位置設置ExpressRoute線路。您可以在同一城域或不同城域的對等位置創建線路，並選擇與不同的服務提供者合作，為通過每個線路的不同路徑提供服務。有關更多資訊，請參閱災難恢復設計 和 高可用性設計。</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>4f51aa2e-2a6a-4ea1-9c8a-f9ee668052af</t>
+          <t>14b83764-dab1-4741-85ee-7b3cf55cde49</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>規劃異地冗餘線路</t>
+          <t>規劃主動-主動連接</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>若要規劃災難恢復，請在多個對等互連位置設置ExpressRoute線路。您可以在同一城域或不同城域的對等位置創建線路，並選擇與不同的服務提供者合作，為通過每個線路的不同路徑提供服務。有關更多資訊，請參閱災難恢復設計 和 高可用性設計。</t>
+          <t>在本地和 Azure 之間配置主動-主動連接時，ExpressRoute 專用線路可保證“99.95%”的可用性。此模式提供更高的 ExpressRoute 連接可用性。此外，還建議配置 BFD 以便在連接發生鏈路故障時更快地進行故障轉移。</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>14b83764-dab1-4741-85ee-7b3cf55cde49</t>
+          <t>f28fea39-a9e2-45ef-a711-997456c3d42c</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>規劃主動-主動連接</t>
+          <t>規劃虛擬網路閘道</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>在本地和 Azure 之間配置主動-主動連接時，ExpressRoute 專用線路可保證“99.95%”的可用性。此模式提供更高的 ExpressRoute 連接可用性。此外，還建議配置 BFD 以便在連接發生鏈路故障時更快地進行故障轉移。</t>
+          <t>創建可用性區域感知型虛擬網路網關以提高復原能力，並在不同區域規劃虛擬網路網關以實現災難恢復和高可用性。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>f28fea39-a9e2-45ef-a711-997456c3d42c</t>
+          <t>8e29e63c-2da5-4242-8a86-c7083b231b0f</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>規劃虛擬網路閘道</t>
+          <t>監控電路和網關運行狀況</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>創建可用性區域感知型虛擬網路網關以提高復原能力，並在不同區域規劃虛擬網路網關以實現災難恢復和高可用性。</t>
+          <t>根據各種可用指標為 ExpressRoute 線路和虛擬網路閘道運行狀況設置監視和警報。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>8e29e63c-2da5-4242-8a86-c7083b231b0f</t>
+          <t>0367cde8-2954-4b20-8be0-fb2b7e50eb91</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>監控電路和網關運行狀況</t>
+          <t>啟用服務運行狀況</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>根據各種可用指標為 ExpressRoute 線路和虛擬網路閘道運行狀況設置監視和警報。</t>
+          <t>ExpressRoute 使用服務運行狀況來通知計劃內和計劃外維護。配置服務運行狀況將通知你對 ExpressRoute 線路所做的更改。</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>0367cde8-2954-4b20-8be0-fb2b7e50eb91</t>
+          <t>c7bf09c0-317f-4f7f-be8d-3d74444757c8</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>啟用服務運行狀況</t>
+          <t>配置活動記錄以將日誌發送到存檔</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 使用服務運行狀況來通知計劃內和計劃外維護。配置服務運行狀況將通知你對 ExpressRoute 線路所做的更改。</t>
+          <t>活動日誌提供對 ExpressRoute 資源的訂閱級別執行的操作的見解。使用活動日誌，您可以確定在控制層面上執行操作的人員和時間。數據保留期僅為 90 天，需要存儲在 Log Analytics、事件中心或存儲帳戶中進行存檔。</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>c7bf09c0-317f-4f7f-be8d-3d74444757c8</t>
+          <t>b1f76928-0fc3-407e-8658-f93f2812873f</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>配置活動記錄以將日誌發送到存檔</t>
+          <t>維護管理帳戶的清單</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>活動日誌提供對 ExpressRoute 資源的訂閱級別執行的操作的見解。使用活動日誌，您可以確定在控制層面上執行操作的人員和時間。數據保留期僅為 90 天，需要存儲在 Log Analytics、事件中心或存儲帳戶中進行存檔。</t>
+          <t>使用 Azure RBAC 配置角色，以限制可以在 ExpressRoute 線路上添加、更新或刪除對等互連配置的用戶帳戶。</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b1f76928-0fc3-407e-8658-f93f2812873f</t>
+          <t>61fced7c-71af-4061-a73a-b880e8ee4f78</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>維護管理帳戶的清單</t>
+          <t>在 ExpressRoute 線路上配置 MD5 哈希</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure RBAC 配置角色，以限制可以在 ExpressRoute 線路上添加、更新或刪除對等互連配置的用戶帳戶。</t>
+          <t>在配置專用對等互連或 Microsoft 對等互連期間，應用 MD5 哈希來保護本地路由與 MSEE 路由器之間的消息。</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>61fced7c-71af-4061-a73a-b880e8ee4f78</t>
+          <t>7091a086-8128-45f8-81e6-c93548433b87</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>在 ExpressRoute 線路上配置 MD5 哈希</t>
+          <t>為 ExpressRoute Direct 資源配置 MACSec</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>在配置專用對等互連或 Microsoft 對等互連期間，應用 MD5 哈希來保護本地路由與 MSEE 路由器之間的消息。</t>
+          <t>Media Access Control 安全性是數據鏈路層的點對點安全性。ExpressRoute Direct 支援配置 MACSec 以防止對乙太網路上通常不安全的協定（如 ARP、DHCP、LACP）構成安全威脅。有關如何配置 MACSec 的詳細資訊，請參閱適用於 ExpressRoute Direct 埠的 MACSec。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>7091a086-8128-45f8-81e6-c93548433b87</t>
+          <t>90d32454-fcb9-496d-a411-166a2fe50b6b</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>為 ExpressRoute Direct 資源配置 MACSec</t>
+          <t>使用 IPsec 加密流量</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Media Access Control 安全性是數據鏈路層的點對點安全性。ExpressRoute Direct 支援配置 MACSec 以防止對乙太網路上通常不安全的協定（如 ARP、DHCP、LACP）構成安全威脅。有關如何配置 MACSec 的詳細資訊，請參閱適用於 ExpressRoute Direct 埠的 MACSec。</t>
+          <t>通過 ExpressRoute 線路配置網站到網站 VPN 隧道，以加密本地網路與 Azure 虛擬網路之間的數據傳輸。您可以使用專用對等連接或使用 Microsoft 對等連接來配置隧道。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>90d32454-fcb9-496d-a411-166a2fe50b6b</t>
+          <t>ef702434-e1ce-4c4b-a2a6-553c1d58f881</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>使用 IPsec 加密流量</t>
+          <t>熟悉 ExpressRoute 定價</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>通過 ExpressRoute 線路配置網站到網站 VPN 隧道，以加密本地網路與 Azure 虛擬網路之間的數據傳輸。您可以使用專用對等連接或使用 Microsoft 對等連接來配置隧道。</t>
+          <t>有關 ExpressRoute 定價的資訊，請參閱瞭解 Azure ExpressRoute 的定價。您還可以使用定價計算機。確保選項的大小足以滿足容量需求，並在不浪費資源的情況下提供預期的性能。</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ef702434-e1ce-4c4b-a2a6-553c1d58f881</t>
+          <t>8ae8772a-7131-42f9-9d2f-ce2aa5bcdd2b</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>熟悉 ExpressRoute 定價</t>
+          <t>確定所需的 SKU 和頻寬</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>有關 ExpressRoute 定價的資訊，請參閱瞭解 Azure ExpressRoute 的定價。您還可以使用定價計算機。確保選項的大小足以滿足容量需求，並在不浪費資源的情況下提供預期的性能。</t>
+          <t>ExpressRoute 使用費的收費方式因三種不同的 SKU 類型而異。使用本地 SKU 時，系統會自動向你收取無限數據計劃的費用。使用 Standard 和 Premium SKU，您可以在 Metered 或 Unlimited 數據計劃之間進行選擇。所有入口數據都是免費的，除非使用 Global Reach 附加元件。瞭解哪些 SKU 類型和數據計劃最適合您的工作負載，以最好地優化成本和預算，這一點很重要。有關調整 ExpressRoute 線路大小的更多資訊，請參閱升級 ExpressRoute 線路頻寬。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8ae8772a-7131-42f9-9d2f-ce2aa5bcdd2b</t>
+          <t>18ef72cd-862c-43e8-b9ee-921fb5f079f0</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>確定所需的 SKU 和頻寬</t>
+          <t>確定 ExpressRoute 虛擬網路閘道大小</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 使用費的收費方式因三種不同的 SKU 類型而異。使用本地 SKU 時，系統會自動向你收取無限數據計劃的費用。使用 Standard 和 Premium SKU，您可以在 Metered 或 Unlimited 數據計劃之間進行選擇。所有入口數據都是免費的，除非使用 Global Reach 附加元件。瞭解哪些 SKU 類型和數據計劃最適合您的工作負載，以最好地優化成本和預算，這一點很重要。有關調整 ExpressRoute 線路大小的更多資訊，請參閱升級 ExpressRoute 線路頻寬。</t>
+          <t>ExpressRoute 虛擬網路閘道用於通過專用對等互連將流量傳遞到虛擬網路。查看首選虛擬網路閘道 SKU 的性能和縮放需求。在本地到 Azure 工作負載上選擇適當的閘道 SKU。</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>18ef72cd-862c-43e8-b9ee-921fb5f079f0</t>
+          <t>3655e3bc-9d56-47f6-b7bc-c1a568aa3c8a</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>確定 ExpressRoute 虛擬網路閘道大小</t>
+          <t>監控成本並創建預算提醒</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 虛擬網路閘道用於通過專用對等互連將流量傳遞到虛擬網路。查看首選虛擬網路閘道 SKU 的性能和縮放需求。在本地到 Azure 工作負載上選擇適當的閘道 SKU。</t>
+          <t>監視 ExpressRoute 線路的成本，並針對支出異常和超支風險創建警報。有關更多資訊，請參閱監控 ExpressRoute 成本。</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>3655e3bc-9d56-47f6-b7bc-c1a568aa3c8a</t>
+          <t>3ade6188-d99d-47de-99e7-639136d3ac36</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>監控成本並創建預算提醒</t>
+          <t>取消預配並刪除不再使用的 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>監視 ExpressRoute 線路的成本，並針對支出異常和超支風險創建警報。有關更多資訊，請參閱監控 ExpressRoute 成本。</t>
+          <t>ExpressRoute 線路從創建時開始收費。為了減少不必要的成本，請向服務提供者取消預配線路，並從訂閱中刪除 ExpressRoute 線路。有關如何刪除 ExpressRoute 線路的步驟，請參閱取消預配 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3ade6188-d99d-47de-99e7-639136d3ac36</t>
+          <t>ca8f1e36-5762-4510-b0af-5a073cc9185a</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>取消預配並刪除不再使用的 ExpressRoute 線路。</t>
+          <t>配置連接監控</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 線路從創建時開始收費。為了減少不必要的成本，請向服務提供者取消預配線路，並從訂閱中刪除 ExpressRoute 線路。有關如何刪除 ExpressRoute 線路的步驟，請參閱取消預配 ExpressRoute 線路。</t>
+          <t>通過連接監視，可以通過 ExpressRoute 專用對等互連和 Microsoft 對等互連連接監視本地資源與 Azure 之間的連接。連接監視器可以通過識別問題在網路路徑中的位置來檢測網路問題，並説明您快速解決配置或硬體故障。</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>ca8f1e36-5762-4510-b0af-5a073cc9185a</t>
+          <t>c1dcf762-0191-4963-89d7-3cc1df34b653</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>配置連接監控</t>
+          <t>配置 Service Health</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>通過連接監視，可以通過 ExpressRoute 專用對等互連和 Microsoft 對等互連連接監視本地資源與 Azure 之間的連接。連接監視器可以通過識別問題在網路路徑中的位置來檢測網路問題，並説明您快速解決配置或硬體故障。</t>
+          <t>設置服務運行狀況通知，以便在訂閱中的所有 ExpressRoute 線路發生計劃內和即將進行的維護時發出警報。如果發生計劃外維護，Service Health 還會顯示過去的維護以及 RCA。</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>c1dcf762-0191-4963-89d7-3cc1df34b653</t>
+          <t>60f840b9-1818-4967-a115-68e90f47daf3</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>配置 Service Health</t>
+          <t>使用 Network Insights 查看指標</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>設置服務運行狀況通知，以便在訂閱中的所有 ExpressRoute 線路發生計劃內和即將進行的維護時發出警報。如果發生計劃外維護，Service Health 還會顯示過去的維護以及 RCA。</t>
+          <t>使用 Network Insights 的 ExpressRoute Insights，可以查看和分析 ExpressRoute 線路、網關、連接指標和運行狀況儀錶板。ExpressRoute Insights 還提供 ExpressRoute 連接的拓撲視圖，你可以在一個位置查看對等互連元件的詳細資訊。可用指標：- 可用性 - 輸送量 - 閘道指標</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>60f840b9-1818-4967-a115-68e90f47daf3</t>
+          <t>c3c5fe66-1901-4786-99ea-845944bd6ca3</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>使用 Network Insights 查看指標</t>
+          <t>查看 ExpressRoute 資源指標</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>使用 Network Insights 的 ExpressRoute Insights，可以查看和分析 ExpressRoute 線路、網關、連接指標和運行狀況儀錶板。ExpressRoute Insights 還提供 ExpressRoute 連接的拓撲視圖，你可以在一個位置查看對等互連元件的詳細資訊。可用指標：- 可用性 - 輸送量 - 閘道指標</t>
+          <t>ExpressRoute 使用 Azure Monitor 收集指標，並根據配置創建警報。收集 ExpressRoute 線路、ExpressRoute 閘道、ExpressRoute 閘道連接和 ExpressRoute Direct 的指標。這些指標可用於診斷連接問題和瞭解 ExpressRoute 連接的性能。</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>c3c5fe66-1901-4786-99ea-845944bd6ca3</t>
+          <t>03914313-6287-41c4-9e4a-4980c2ee3aa9</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>查看 ExpressRoute 資源指標</t>
+          <t>測試 ExpressRoute 閘道性能以滿足工作負載要求。</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 使用 Azure Monitor 收集指標，並根據配置創建警報。收集 ExpressRoute 線路、ExpressRoute 閘道、ExpressRoute 閘道連接和 ExpressRoute Direct 的指標。這些指標可用於診斷連接問題和瞭解 ExpressRoute 連接的性能。</t>
+          <t>使用 Azure 連接工具包測試 ExpressRoute 線路的性能，以瞭解網路連接的頻寬容量和延遲。</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>03914313-6287-41c4-9e4a-4980c2ee3aa9</t>
+          <t>07fac8bb-13c5-44b8-a4e8-7e2ed1a84b48</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>測試 ExpressRoute 閘道性能以滿足工作負載要求。</t>
+          <t>增加 ExpressRoute 閘道的大小。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 連接工具包測試 ExpressRoute 線路的性能，以瞭解網路連接的頻寬容量和延遲。</t>
+          <t>升級到更高的閘道 SKU，以提高本地和 Azure 環境之間的輸送量性能。</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>07fac8bb-13c5-44b8-a4e8-7e2ed1a84b48</t>
+          <t>7f788e1a-71dd-4a3e-b19f-6bd8ef8ad815</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>增加 ExpressRoute 閘道的大小。</t>
+          <t>升級 ExpressRoute 線路頻寬</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>升級到更高的閘道 SKU，以提高本地和 Azure 環境之間的輸送量性能。</t>
+          <t>升級您的電路頻寬以滿足您的工作負載要求。線路頻寬在連接到 ExpressRoute 線路的所有虛擬網路之間共用。根據您的工作負載，一個或多個虛擬網路可能會用完電路上的所有頻寬。</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>7f788e1a-71dd-4a3e-b19f-6bd8ef8ad815</t>
+          <t>5cd4120c-3a0b-42d0-8114-2663988f43b8</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>升級 ExpressRoute 線路頻寬</t>
+          <t>啟用 ExpressRoute FastPath 以獲得更高的輸送量</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>升級您的電路頻寬以滿足您的工作負載要求。線路頻寬在連接到 ExpressRoute 線路的所有虛擬網路之間共用。根據您的工作負載，一個或多個虛擬網路可能會用完電路上的所有頻寬。</t>
+          <t>如果您使用的是 Ultra 性能或 ErGW3AZ 虛擬網路閘道，則可以啟用 FastPath 來提高本地網路和 Azure 虛擬網路之間的數據路徑性能。</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5cd4120c-3a0b-42d0-8114-2663988f43b8</t>
+          <t>ef778b99-5006-4adf-bef1-d709456a4c51</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>啟用 ExpressRoute FastPath 以獲得更高的輸送量</t>
+          <t>監視 ExpressRoute 線路和閘道指標</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>如果您使用的是 Ultra 性能或 ErGW3AZ 虛擬網路閘道，則可以啟用 FastPath 來提高本地網路和 Azure 虛擬網路之間的數據路徑性能。</t>
+          <t>根據 ExpressRoute 指標設置警報，以便在達到特定閾值時主動通知你。這些指標有助於瞭解 ExpressRoute 連接可能發生的異常情況，例如 ExpressRoute 線路發生中斷和維護。</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>ef778b99-5006-4adf-bef1-d709456a4c51</t>
+          <t>4a0e8302-106d-48a3-abc4-9e4875a48309</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1904,32 +1904,15 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="n"/>
       <c r="B33" s="21" t="n"/>
-      <c r="C33" s="21" t="inlineStr">
-        <is>
-          <t>監視 ExpressRoute 線路和閘道指標</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>根據 ExpressRoute 指標設置警報，以便在達到特定閾值時主動通知你。這些指標有助於瞭解 ExpressRoute 連接可能發生的異常情況，例如 ExpressRoute 線路發生中斷和維護。</t>
-        </is>
-      </c>
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="n"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
-      <c r="L33" s="25" t="inlineStr">
-        <is>
-          <t>4a0e8302-106d-48a3-abc4-9e4875a48309</t>
-        </is>
-      </c>
+      <c r="L33" s="25" t="n"/>
       <c r="M33" s="25" t="n"/>
       <c r="N33" s="25" t="n"/>
       <c r="O33" s="25" t="n"/>
@@ -6249,7 +6232,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F33" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/azureexpressroute_sg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azureexpressroute_sg_checklist.zh-Hant.xlsx
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>在本地和 Azure 之間配置主動-主動連接時，ExpressRoute 專用線路可保證“99.95%”的可用性。此模式提供更高的 ExpressRoute 連接可用性。此外，還建議配置 BFD 以便在連接發生鏈路故障時更快地進行故障轉移。</t>
+          <t>此模式提供更高的 ExpressRoute 連接可用性。此外，還建議配置 BFD 以便在連接發生鏈路故障時更快地進行故障轉移。</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>創建可用性區域感知型虛擬網路網關以提高復原能力，並在不同區域規劃虛擬網路網關以實現災難恢復和高可用性。</t>
+          <t>創建可用性區域感知型虛擬網路閘道以實現更高的復原能力，並在不同區域中規劃虛擬網路閘道以實現復原能力、災難恢復和高可用性。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
